--- a/Client_CSILMS/src/templates/PublicHolidays.xlsx
+++ b/Client_CSILMS/src/templates/PublicHolidays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Guidelines:</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>You may contact the Development Team for further assistance of using this template.</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -49,27 +46,18 @@
     <t>Initial Draft Template.</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
     <t>New Year</t>
   </si>
   <si>
     <t>All states except Johor, Kedah, Kelantan, Perlis &amp; Terrenganu</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>Thaipusam</t>
   </si>
   <si>
     <t>Kuala Lumpur, Putrajaya, Johor, Negeri Sembilan, Perak, Penang &amp; Selangor</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>Federal Territory Day</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>National</t>
   </si>
   <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
     <t>Chinese New Year (2nd Day)</t>
   </si>
   <si>
@@ -94,9 +79,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Holiday</t>
   </si>
   <si>
@@ -107,9 +89,6 @@
   </si>
   <si>
     <t>Failing to follow any of these below rules may result to unsuccessful upload of Public Holidays data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.) This template contains eight (4) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
   </si>
   <si>
     <r>
@@ -136,8 +115,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3.) </t>
+    <t>Wesak Day</t>
+  </si>
+  <si>
+    <t>Hari Raya Aidilfitri</t>
+  </si>
+  <si>
+    <t>Malaysia Day</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>2019-02-05</t>
+  </si>
+  <si>
+    <t>2019-02-06</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.) </t>
     </r>
     <r>
       <rPr>
@@ -147,7 +150,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Day </t>
+      <t>Date</t>
     </r>
     <r>
       <rPr>
@@ -156,30 +159,58 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>values should be the Day of the Week, that means values should be:</t>
-    </r>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Wesak Day</t>
-  </si>
-  <si>
-    <t>Hari Raya Aidilfitri</t>
-  </si>
-  <si>
-    <t>Malaysia Day</t>
+      <t xml:space="preserve"> values must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYY-MM-DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) This template contains three (3) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">4.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">State </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>values should be list of States in Malaysia covered by the Holiday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.) </t>
     </r>
     <r>
       <rPr>
@@ -203,46 +234,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">State </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>values should be list of States in Malaysia covered by the Holiday.</t>
-    </r>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2019-01-21</t>
-  </si>
-  <si>
-    <t>2019-02-01</t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
-  </si>
-  <si>
-    <t>2019-02-06</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If ever that the format of this Column due copying data from other Excel cell, you may right click the Column </t>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copying of data from other Excel cell, you may right click Column </t>
     </r>
     <r>
       <rPr>
@@ -303,47 +295,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values must have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>YYYY-MM-DD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
-    </r>
+    <t>You may contact the Development Team for further assistance in using this template.</t>
+  </si>
+  <si>
+    <t>5.) As best practice, always download and use the most updated Upload Template available in the "Upload Public Holidays" page.</t>
   </si>
 </sst>
 </file>
@@ -913,7 +868,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -928,13 +883,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,42 +902,41 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1312,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1333,259 +1280,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+      <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="14">
+        <v>43517</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="17">
-        <v>43517</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="B26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1594,182 +1504,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="100.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="115" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>40</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Client_CSILMS/src/templates/PublicHolidays.xlsx
+++ b/Client_CSILMS/src/templates/PublicHolidays.xlsx
@@ -233,8 +233,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If ever that the format of this Column has changed due to copying of data from other Excel cell, you may right click Column </t>
+    <t>You may contact the Development Team for further assistance in using this template.</t>
+  </si>
+  <si>
+    <t>5.) As best practice, always download and use the most updated Upload Template available in the "Upload Public Holidays" page.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
     </r>
     <r>
       <rPr>
@@ -244,16 +250,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, select </t>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(for Date Header), select </t>
     </r>
     <r>
       <rPr>
@@ -291,14 +297,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>in the Format Cells dialog box</t>
     </r>
-  </si>
-  <si>
-    <t>You may contact the Development Team for further assistance in using this template.</t>
-  </si>
-  <si>
-    <t>5.) As best practice, always download and use the most updated Upload Template available in the "Upload Public Holidays" page.</t>
   </si>
 </sst>
 </file>
@@ -917,6 +936,9 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -934,9 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1261,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1297,13 +1316,13 @@
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1315,33 +1334,33 @@
       <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
@@ -1406,7 +1425,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,52 +1434,52 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,27 +1494,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Client_CSILMS/src/templates/PublicHolidays.xlsx
+++ b/Client_CSILMS/src/templates/PublicHolidays.xlsx
@@ -316,7 +316,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>in the Format Cells dialog box</t>
+      <t>in the Format Cells dialog box.</t>
     </r>
   </si>
 </sst>
@@ -936,26 +936,26 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1316,13 +1316,13 @@
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1334,33 +1334,33 @@
       <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
@@ -1434,52 +1434,52 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,17 +1504,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
